--- a/phase1/learnings/Day06/NFs.xlsx
+++ b/phase1/learnings/Day06/NFs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="110">
   <si>
     <t>School Management App</t>
   </si>
@@ -114,18 +114,6 @@
   </si>
   <si>
     <t>deptName</t>
-  </si>
-  <si>
-    <t>deptLoc</t>
-  </si>
-  <si>
-    <t>Triv</t>
-  </si>
-  <si>
-    <t>Blore</t>
-  </si>
-  <si>
-    <t>Trv</t>
   </si>
   <si>
     <t>deptId</t>
@@ -834,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:N14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,36 +858,33 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -916,34 +901,31 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -965,29 +947,26 @@
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
         <v>101</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
-        <v>21</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1006,29 +985,26 @@
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="2">
         <v>102</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="2">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2">
         <v>21</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1047,29 +1023,26 @@
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>103</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="2">
-        <v>103</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
         <v>11</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="M8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1088,29 +1061,26 @@
       <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>103</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="2">
-        <v>103</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="2">
+      <c r="K9" s="2">
         <v>11</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="M9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1129,239 +1099,236 @@
       <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="2">
         <v>101</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>21</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="C11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="O12" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="H13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" t="s">
-        <v>65</v>
-      </c>
       <c r="M13" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="H14" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="D16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="C24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="D28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1375,24 +1342,24 @@
         <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>100</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L30" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
@@ -1410,21 +1377,20 @@
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G31" s="2">
         <v>101</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="J31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="K31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
@@ -1442,21 +1408,20 @@
         <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G32" s="2">
         <v>102</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="J32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="K32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
@@ -1474,21 +1439,20 @@
         <v>20</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2">
         <v>103</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="J33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="K33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
@@ -1506,21 +1470,20 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G34" s="2">
         <v>103</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="J34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="10"/>
+      <c r="K34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
@@ -1538,21 +1501,20 @@
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G35" s="2">
         <v>101</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="J35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="K35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
@@ -1570,50 +1532,50 @@
         <v>30</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G36" s="13">
         <v>104</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="J36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>103</v>
+      <c r="K36" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:19">
-      <c r="I37" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="J37" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="2:19">
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="6"/>
       <c r="J38" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:19">
@@ -1623,9 +1585,9 @@
       <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:19">
       <c r="B40" s="2">
@@ -1634,27 +1596,29 @@
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="11">
+      <c r="B41" s="2">
         <v>30</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:19" ht="50.25" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="6"/>
       <c r="I42" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -1671,6 +1635,8 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:19">
       <c r="B44" s="10"/>
@@ -1679,23 +1645,23 @@
     </row>
     <row r="45" spans="2:19">
       <c r="B45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F45" s="10"/>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -1703,7 +1669,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>15</v>
@@ -1713,10 +1679,10 @@
       </c>
       <c r="F46" s="10"/>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:19">
@@ -1724,20 +1690,20 @@
         <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="10"/>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:19">
@@ -1745,7 +1711,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>18</v>
@@ -1760,10 +1726,10 @@
         <v>105</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E49" s="13">
         <v>31</v>
@@ -1772,33 +1738,33 @@
     </row>
     <row r="50" spans="2:19">
       <c r="I50" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:19">
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>6</v>
       </c>
       <c r="J51" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:19">
@@ -1806,19 +1772,19 @@
         <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:19">
@@ -1826,19 +1792,19 @@
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>10</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:19">
@@ -1846,19 +1812,19 @@
         <v>41</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I54" s="15" t="s">
         <v>12</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:19">
@@ -1867,21 +1833,21 @@
         <v>13</v>
       </c>
       <c r="J55" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:19">
       <c r="I56" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:19">
@@ -1891,7 +1857,7 @@
     </row>
     <row r="58" spans="2:19" ht="43.5" customHeight="1">
       <c r="I58" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -1909,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:19">
@@ -1917,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:19">
@@ -1925,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="9:19">
@@ -1933,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="9:19">
@@ -1941,12 +1907,12 @@
         <v>13</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="9:19" ht="36" customHeight="1">
       <c r="I68" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
@@ -1964,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="9:19">
@@ -1972,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="9:19">
@@ -1980,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="9:19">
@@ -1988,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="9:19">
@@ -1996,7 +1962,7 @@
         <v>13</v>
       </c>
       <c r="J74" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="9:19">
@@ -2004,12 +1970,12 @@
         <v>14</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="9:19" ht="28.5" customHeight="1">
       <c r="I77" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
@@ -2027,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="9:19">
@@ -2035,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="9:19">
@@ -2043,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="9:19">
@@ -2051,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="9:19">
@@ -2059,20 +2025,20 @@
         <v>13</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="9:19">
       <c r="I84" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="9:19" ht="27.75" customHeight="1">
       <c r="I86" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
@@ -2090,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="9:19">
@@ -2098,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="9:19">
@@ -2106,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="9:19">
@@ -2114,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="9:19">
@@ -2122,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="9:19">
@@ -2130,20 +2096,20 @@
         <v>14</v>
       </c>
       <c r="J93" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="9:19">
       <c r="I94" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="9:19" ht="30.75" customHeight="1">
       <c r="I96" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
@@ -2166,6 +2132,7 @@
     <mergeCell ref="I86:S86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
